--- a/Analytics/SP1/ShirtsXbookings_sp1.xlsx
+++ b/Analytics/SP1/ShirtsXbookings_sp1.xlsx
@@ -82,64 +82,64 @@
     <t>20</t>
   </si>
   <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
     <t>Osasuna</t>
   </si>
   <si>
-    <t>Villarreal</t>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Girona</t>
   </si>
   <si>
     <t>Alaves</t>
   </si>
   <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
     <t>Betis</t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Girona</t>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
   </si>
   <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Valencia</t>
+    <t>Leganes</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -148,7 +148,7 @@
     <t>SUM("TShirtsXbookings")</t>
   </si>
   <si>
-    <t>SUM("TShirtsXbookings") / 38</t>
+    <t>SUM("TShirtsXbookings") / 12</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>45465.0</v>
+        <v>22170.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>44690.0</v>
+        <v>16310.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>40830.0</v>
+        <v>13795.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>40400.0</v>
+        <v>13100.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>40050.0</v>
+        <v>12190.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>39840.0</v>
+        <v>12145.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>39145.0</v>
+        <v>11690.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>38680.0</v>
+        <v>11385.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>37940.0</v>
+        <v>11205.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>36015.0</v>
+        <v>10350.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>35260.0</v>
+        <v>9950.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>34770.0</v>
+        <v>9425.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>34615.0</v>
+        <v>9210.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>32525.0</v>
+        <v>8840.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>31955.0</v>
+        <v>8820.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>30860.0</v>
+        <v>5965.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>30540.0</v>
+        <v>4945.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>27350.0</v>
+        <v>4835.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>26615.0</v>
+        <v>4690.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>24040.0</v>
+        <v>3380.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>60250.0</v>
+        <v>23225.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>58820.0</v>
+        <v>22640.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>48945.0</v>
+        <v>21065.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>43875.0</v>
+        <v>18720.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>42435.0</v>
+        <v>14390.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>34760.0</v>
+        <v>13400.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>34560.0</v>
+        <v>9550.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>34020.0</v>
+        <v>9495.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>33535.0</v>
+        <v>9050.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>33280.0</v>
+        <v>8550.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>32825.0</v>
+        <v>8455.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>32080.0</v>
+        <v>7875.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>31665.0</v>
+        <v>7480.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>29415.0</v>
+        <v>7050.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>28840.0</v>
+        <v>5430.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>28745.0</v>
+        <v>4690.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>28560.0</v>
+        <v>4270.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>28255.0</v>
+        <v>3665.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>25270.0</v>
+        <v>3640.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>21450.0</v>
+        <v>1760.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>103510.0</v>
+        <v>35030.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2723.9473684210525</v>
+        <v>2919.1666666666665</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>98930.0</v>
+        <v>32650.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2603.4210526315787</v>
+        <v>2720.8333333333335</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>88785.0</v>
+        <v>31850.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2336.4473684210525</v>
+        <v>2654.1666666666665</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>87900.0</v>
+        <v>31415.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2313.157894736842</v>
+        <v>2617.9166666666665</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +759,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>83925.0</v>
+        <v>26580.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2208.5526315789475</v>
+        <v>2215.0</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>72425.0</v>
+        <v>26440.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1905.921052631579</v>
+        <v>2203.3333333333335</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>70775.0</v>
+        <v>24785.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1862.5</v>
+        <v>2065.4166666666665</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>69605.0</v>
+        <v>20580.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1831.7105263157894</v>
+        <v>1715.0</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>69575.0</v>
+        <v>19565.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1830.921052631579</v>
+        <v>1630.4166666666667</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>69175.0</v>
+        <v>19225.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1820.3947368421052</v>
+        <v>1602.0833333333333</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>68960.0</v>
+        <v>19195.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1814.7368421052631</v>
+        <v>1599.5833333333333</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>68085.0</v>
+        <v>18335.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1791.7105263157894</v>
+        <v>1527.9166666666667</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>65490.0</v>
+        <v>14385.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1723.421052631579</v>
+        <v>1198.75</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>64880.0</v>
+        <v>13995.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1707.3684210526317</v>
+        <v>1166.25</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>63610.0</v>
+        <v>13615.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1673.9473684210527</v>
+        <v>1134.5833333333333</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>59955.0</v>
+        <v>13510.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1577.7631578947369</v>
+        <v>1125.8333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>59430.0</v>
+        <v>13145.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1563.9473684210527</v>
+        <v>1095.4166666666667</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>57795.0</v>
+        <v>12965.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1520.921052631579</v>
+        <v>1080.4166666666667</v>
       </c>
     </row>
     <row r="20">
@@ -955,10 +955,10 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>52295.0</v>
+        <v>11930.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1376.1842105263158</v>
+        <v>994.1666666666666</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>48065.0</v>
+        <v>9605.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1264.8684210526317</v>
+        <v>800.4166666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/ShirtsXbookings_sp1.xlsx
+++ b/Analytics/SP1/ShirtsXbookings_sp1.xlsx
@@ -91,49 +91,49 @@
     <t>Osasuna</t>
   </si>
   <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
     <t>Espanol</t>
   </si>
   <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
     <t>Alaves</t>
   </si>
   <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
     <t>Sociedad</t>
   </si>
   <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
   </si>
   <si>
     <t>Getafe</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>22170.0</v>
+        <v>26430.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>16310.0</v>
+        <v>26290.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>13795.0</v>
+        <v>24615.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>13100.0</v>
+        <v>23680.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>12190.0</v>
+        <v>21340.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>12145.0</v>
+        <v>17405.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>11690.0</v>
+        <v>15630.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>11385.0</v>
+        <v>14885.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>11205.0</v>
+        <v>14755.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>10350.0</v>
+        <v>14700.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>9950.0</v>
+        <v>13845.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>9425.0</v>
+        <v>13615.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>9210.0</v>
+        <v>12660.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>8840.0</v>
+        <v>12325.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>8820.0</v>
+        <v>12295.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>5965.0</v>
+        <v>11590.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>4945.0</v>
+        <v>11230.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>4835.0</v>
+        <v>10470.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>4690.0</v>
+        <v>9070.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>3380.0</v>
+        <v>5915.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>23225.0</v>
+        <v>36725.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>22640.0</v>
+        <v>27430.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>21065.0</v>
+        <v>26065.0</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>18720.0</v>
+        <v>25380.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>14390.0</v>
+        <v>21415.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>13400.0</v>
+        <v>21390.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>9550.0</v>
+        <v>20410.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>9495.0</v>
+        <v>17335.0</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>9050.0</v>
+        <v>13905.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>8550.0</v>
+        <v>13540.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>8455.0</v>
+        <v>12795.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>7875.0</v>
+        <v>11690.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>7480.0</v>
+        <v>11590.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>7050.0</v>
+        <v>10835.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>5430.0</v>
+        <v>9935.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>4690.0</v>
+        <v>9370.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>4270.0</v>
+        <v>6510.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>3665.0</v>
+        <v>6455.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>3640.0</v>
+        <v>6050.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>1760.0</v>
+        <v>3920.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>35030.0</v>
+        <v>51670.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2919.1666666666665</v>
+        <v>4305.833333333333</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>32650.0</v>
+        <v>49745.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2720.8333333333335</v>
+        <v>4145.416666666667</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>31850.0</v>
+        <v>47195.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2654.1666666666665</v>
+        <v>3932.9166666666665</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>31415.0</v>
+        <v>42315.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2617.9166666666665</v>
+        <v>3526.25</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +759,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>26580.0</v>
+        <v>41750.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2215.0</v>
+        <v>3479.1666666666665</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>26440.0</v>
+        <v>36170.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2203.3333333333335</v>
+        <v>3014.1666666666665</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>24785.0</v>
+        <v>35235.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2065.4166666666665</v>
+        <v>2936.25</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>20580.0</v>
+        <v>32965.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1715.0</v>
+        <v>2747.0833333333335</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>19565.0</v>
+        <v>32885.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1630.4166666666667</v>
+        <v>2740.4166666666665</v>
       </c>
     </row>
     <row r="11">
@@ -829,10 +829,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>19225.0</v>
+        <v>31125.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1602.0833333333333</v>
+        <v>2593.75</v>
       </c>
     </row>
     <row r="12">
@@ -843,10 +843,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>19195.0</v>
+        <v>30200.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1599.5833333333333</v>
+        <v>2516.6666666666665</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>18335.0</v>
+        <v>26290.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1527.9166666666667</v>
+        <v>2190.8333333333335</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>14385.0</v>
+        <v>26200.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1198.75</v>
+        <v>2183.3333333333335</v>
       </c>
     </row>
     <row r="15">
@@ -885,10 +885,10 @@
         <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>13995.0</v>
+        <v>25135.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1166.25</v>
+        <v>2094.5833333333335</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>13615.0</v>
+        <v>24015.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1134.5833333333333</v>
+        <v>2001.25</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>13510.0</v>
+        <v>22425.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1125.8333333333333</v>
+        <v>1868.75</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>13145.0</v>
+        <v>19665.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1095.4166666666667</v>
+        <v>1638.75</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>12965.0</v>
+        <v>19005.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1080.4166666666667</v>
+        <v>1583.75</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>11930.0</v>
+        <v>16215.0</v>
       </c>
       <c r="D20" t="n">
-        <v>994.1666666666666</v>
+        <v>1351.25</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>9605.0</v>
+        <v>15285.0</v>
       </c>
       <c r="D21" t="n">
-        <v>800.4166666666666</v>
+        <v>1273.75</v>
       </c>
     </row>
   </sheetData>
